--- a/public/preprocessing/@Hengkychova.xlsx
+++ b/public/preprocessing/@Hengkychova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19534</v>
+        <v>32271</v>
       </c>
       <c r="C2" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['semoga', 'aparat', 'tentara, nasional, indonesia', 'dan', 'kepolisian, republik, indonesia', 'bersatu', 'memberangus', 'aksi', 'makar', 'soenarko', 'soenarko', 'dalam', 'pertemuan', 'itu', 'bahkan', 'menjele']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['semoga', 'aparat', 'tni', 'polri', 'bersatu', 'memberangus', 'aksi', 'makar', 'soenarko', 'soenarko', 'pertemuan', 'menjele']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['moga', 'aparat', 'tni', 'polri', 'satu', 'berangus', 'aksi', 'makar', 'soenarko', 'soenarko', 'temu', 'menjele']</t>
+          <t>['semoga', 'aparat', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'bersatu', 'memberangus', 'aksi', 'makar', 'soenarko', 'soenarko', 'pertemuan', 'menjele']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['moga', 'aparat', 'tentara nasional indonesia', 'polisi republik indonesia', 'satu', 'berangus', 'aksi', 'makar', 'soenarko', 'soenarko', 'temu', 'menjele']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19535</v>
+        <v>32272</v>
       </c>
       <c r="C3" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['soenarko', 'tertangkap', 'kamera', 'sedang', 'memberikan', 'arahan', 'untuk', 'mengepung', 'istana', 'negara', 'amp', 'gedung', 'dewan, perwakilan, rakyat', 'alasannya', 'apalagi', 'jik']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['soenarko', 'tertangkap', 'kamera', 'sdg', 'arahan', 'mengepung', 'istana', 'negara', 'gedung', 'dpr', 'alasannya', 'jik']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['soenarko', 'tangkap', 'kamera', 'sdg', 'arah', 'kepung', 'istana', 'negara', 'gedung', 'dpr', 'alas', 'jik']</t>
+          <t>['soenarko', 'tertangkap', 'kamera', 'arahan', 'mengepung', 'istana', 'negara', 'gedung', 'dewan, perwakilan, rakyat', 'alasannya', 'jik']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['soenarko', 'tangkap', 'kamera', 'arah', 'kepung', 'istana', 'negara', 'gedung', 'dewan wakil rakyat', 'alas', 'jik']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19536</v>
+        <v>32273</v>
       </c>
       <c r="C4" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['sadja', 'leader', 'pak']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['sadja', 'leader', 'pa']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['sadja', 'leader', 'pa']</t>
+          <t>['sadja', 'leader']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['sadja', 'leader']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19537</v>
+        <v>32274</v>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['untuk', 'perbaikan', 'drainase', 'kewenangan', 'di', 'pemerintah', 'provinsi', 'sudah', 'dikoordinasikan', 'bos', 'tunggu', 'action', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['perbaikan', 'drainase', 'kewenangan', 'pemerintah', 'provinsi', 'dikoordinasikan', 'bos', 'tunggu', 'action', 'pr']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['baik', 'drainase', 'wenang', 'perintah', 'provinsi', 'koordinasi', 'bos', 'tunggu', 'action', 'pr']</t>
+          <t>['perbaikan', 'drainase', 'kewenangan', 'pemerintah', 'provinsi', 'dikoordinasikan', 'bos', 'tunggu', 'action', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['baik', 'drainase', 'wenang', 'perintah', 'provinsi', 'koordinasi', 'bos', 'tunggu', 'action', 'kerja rumah']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19538</v>
+        <v>32275</v>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,15 +661,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['nanti', 'kita', 'cek', 'kang']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['cek', 'kang']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['cek', 'kang']</t>
         </is>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19539</v>
+        <v>32276</v>
       </c>
       <c r="C7" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['inshaaallah', 'kang']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['inshaaallah', 'kang']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['inshaaallah', 'kang']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19540</v>
+        <v>32277</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'mbak', 'fika']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'mbak', 'fika']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['terimakasih', 'mbak', 'fika']</t>
+          <t>['terima, kasih', 'mbak', 'fika']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'mbak', 'fika']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19541</v>
+        <v>32278</v>
       </c>
       <c r="C9" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['ramadan', 'adalah', 'sebaik', 'baiknya', 'kesempatan', 'untuk', 'menghidupkan', 'kebaikan', 'dengan', 'cara', 'yang', 'sederhana']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['ramadhan', 'baiknya', 'kesempatan', 'menghidupkan', 'kebaikan', 'sederhana']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['ramadhan', 'baik', 'sempat', 'hidup', 'baik', 'sederhana']</t>
+          <t>['ramadan', 'baiknya', 'kesempatan', 'menghidupkan', 'kebaikan', 'sederhana']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['ramadan', 'baik', 'sempat', 'hidup', 'baik', 'sederhana']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19542</v>
+        <v>32279</v>
       </c>
       <c r="C10" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['rt', 'besok', 'di', 'metrotv', 'pindah', 'panggung', 'bersama', 'ganesha']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['besok', 'metrotv', 'pindah', 'panggung', 'ganesha']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['besok', 'metrotv', 'pindah', 'panggung', 'ganesha']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19543</v>
+        <v>32280</v>
       </c>
       <c r="C11" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['rt', 'aku', 'bisa', 'apa', 'langit', 'ke', 'ini', 'indonesia', 'request', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['langit', 'its', 'indo', 'request', 'hosted', 'by']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['langit', 'its', 'indo', 'request', 'hosted', 'by']</t>
+          <t>['langit', 'indonesia', 'request', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['langit', 'indonesia', 'request', 'hosted', 'by']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19544</v>
+        <v>32281</v>
       </c>
       <c r="C12" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'panlpg', 'saudaraku', 'ketua', 'umum', 'zulkifli', 'hasan', 'tanpa', 'mengenal', 'lelah', 'terus', 'menjahit', 'kembali', 'merah', 'putih', 'yang', 'mulai', 'terkoyak', 'zulk']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['panlpg', 'saudaraku', 'ketua', 'zulkifli', 'hasan', 'mengenal', 'lelah', 'menjahit', 'merah', 'putih', 'terkoyak', 'zulk']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['panlpg', 'saudara', 'ketua', 'zulkifli', 'hasan', 'kenal', 'lelah', 'jahit', 'merah', 'putih', 'koyak', 'zulk']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19545</v>
+        <v>32282</v>
       </c>
       <c r="C13" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'kapan', 'kesenjangan', 'yang', 'saat', 'inu', 'juga', 'terjadi', 'adalah', 'kesenjangan', 'politik', 'apa', 'yang', 'diharapkan', 'rakyat', 'tidak', 'diperjuangkan', 'oleh']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['pan', 'kesenjangan', 'inu', 'kesenjangan', 'politik', 'diharapkan', 'rakyat', 'diperjuangkan']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['pan', 'senjang', 'inu', 'senjang', 'politik', 'harap', 'rakyat', 'juang']</t>
+          <t>['kesenjangan', 'inu', 'kesenjangan', 'politik', 'diharapkan', 'rakyat', 'diperjuangkan']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['senjang', 'inu', 'senjang', 'politik', 'harap', 'rakyat', 'juang']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19546</v>
+        <v>32283</v>
       </c>
       <c r="C14" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'saksikan', 'ikhtiar', 'sang', 'penjual', 'cobek', 'pemain']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['saksikan', 'ikhtiar', 'sang', 'penjual', 'cobek', 'pemain']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['saksi', 'ikhtiar', 'sang', 'jual', 'cobek', 'main']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19547</v>
+        <v>32284</v>
       </c>
       <c r="C15" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'sucita', 'feat', 'kalau', 'bulan', 'bisa', 'berbicara', 'cc']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['sucita', 'feat', 'ngomong', 'cc']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['sucita', 'feat', 'ngomong', 'cc']</t>
+          <t>['sucita', 'feat', 'berbicara', 'cc']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['sucita', 'feat', 'bicara', 'cc']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19548</v>
+        <v>32285</v>
       </c>
       <c r="C16" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['langit']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['langit']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19549</v>
+        <v>32286</v>
       </c>
       <c r="C17" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'dinata', 'indonesia', 'amp', 'sonya', 'fatmala', 'id']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['dinata', 'indo', 'sonya', 'fatmala', 'id']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['dinata', 'indo', 'sonya', 'fatmala', 'id']</t>
+          <t>['dinata', 'indonesia', 'sonya', 'fatmala', 'id']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['dinata', 'indonesia', 'sonya', 'fatmala', 'id']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19550</v>
+        <v>32287</v>
       </c>
       <c r="C18" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,17 +1153,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke', 'miss', 'kamu', 'ft', 'ini', 'indomanca', 'request']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['langit', 'miss', 'you', 'ft', 'its', 'indomanca', 'request']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['langit', 'miss', 'you', 'ft', 'its', 'indomanca', 'request']</t>
+          <t>['langit', 'miss', 'ft', 'indomanca', 'request']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['langit', 'miss', 'ft', 'indomanca', 'request']</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19551</v>
+        <v>32288</v>
       </c>
       <c r="C19" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'full', 'request', 'pilihan', 'indonesia', 'dikawal', 'rdb', 'sukses', 'memutar', 'harunid', 'amp', 'rizas']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['full', 'request', 'pilihan', 'indonesia', 'dikawal', 'rdb', 'sukses', 'memutar', 'harunid', 'rizas']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['full', 'request', 'pilih', 'indonesia', 'kawal', 'rdb', 'sukses', 'putar', 'harunid', 'rizas']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19552</v>
+        <v>32289</v>
       </c>
       <c r="C20" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'haloooo', 'id', 'pecinta', 'amp', 'hengky', 'pecinta', 'amp', 'sonyafatmala', 'yang', 'punya', 'single', 'terbaru']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['id', 'haloooo', 'id', 'lovers', 'hengky', 'lovers', 'sonyafatmala', 'single', 'terbaru']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['id', 'haloooo', 'id', 'lovers', 'hengky', 'lovers', 'sonyafatmala', 'single', 'baru']</t>
+          <t>['id', 'haloooo', 'id', 'pecinta', 'hengky', 'pecinta', 'sonyafatmala', 'single', 'terbaru']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['id', 'haloooo', 'id', 'cinta', 'hengky', 'cinta', 'sonyafatmala', 'single', 'baru']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19553</v>
+        <v>32290</v>
       </c>
       <c r="C21" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['langit']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['langit']</t>
         </is>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19554</v>
+        <v>32291</v>
       </c>
       <c r="C22" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,17 +1317,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke', 'terasa', 'nyaman', 'ini', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['langit', 'nyaman', 'its', 'hosted', 'by']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['langit', 'nyaman', 'its', 'hosted', 'by']</t>
+          <t>['langit', 'nyaman', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['langit', 'nyaman', 'hosted', 'by']</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19555</v>
+        <v>32292</v>
       </c>
       <c r="C23" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['rt', 'dimainkan', 'id', 'id', 'id']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['dimainkan', 'id', 'id', 'id']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['main', 'id', 'id', 'id']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19556</v>
+        <v>32293</v>
       </c>
       <c r="C24" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,15 +1399,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['rt', 'amp', 'langit', 'ke', 'cc', 'id']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['langit', 'cc', 'id']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['langit', 'cc', 'id']</t>
         </is>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19557</v>
+        <v>32294</v>
       </c>
       <c r="C25" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke', 'lekas', 'pulang', 'ini', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['langit', 'lekas', 'pulang', 'its', 'hosted', 'by']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['langit', 'lekas', 'pulang', 'its', 'hosted', 'by']</t>
+          <t>['langit', 'lekas', 'pulang', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['langit', 'lekas', 'pulang', 'hosted', 'by']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19558</v>
+        <v>32295</v>
       </c>
       <c r="C26" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke', 'heavy', 'metal', 'lover', 'ini', 'indomanca', 'request', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['langit', 'heavy', 'metal', 'lover', 'its', 'indomanca', 'request', 'hosted', 'by']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['langit', 'heavy', 'metal', 'lover', 'its', 'indomanca', 'request', 'hosted', 'by']</t>
+          <t>['langit', 'heavy', 'metal', 'lover', 'indomanca', 'request', 'hosted', 'by']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['langit', 'heavy', 'metal', 'lover', 'indomanca', 'request', 'hosted', 'by']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19559</v>
+        <v>32296</v>
       </c>
       <c r="C27" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'get', 'it', 'on', 'for', 'amp', 'sonya', 'fatmala', 'langit', 'ke', 'single', 'cc']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['id', 'get', 'it', 'on', 'for', 'sonya', 'fatmala', 'langit', 'single', 'cc']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['id', 'get', 'it', 'on', 'for', 'sonya', 'fatmala', 'langit', 'single', 'cc']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19560</v>
+        <v>32297</v>
       </c>
       <c r="C28" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'amp', 'sonya', 'fatmala', 'official', 'musik', 'video', 'cc']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['id', 'sonya', 'fatmala', 'official', 'music', 'video', 'cc']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['id', 'sonya', 'fatmala', 'official', 'music', 'video', 'cc']</t>
+          <t>['id', 'sonya', 'fatmala', 'official', 'musik', 'video', 'cc']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['id', 'sonya', 'fatmala', 'official', 'musik', 'video', 'cc']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19561</v>
+        <v>32298</v>
       </c>
       <c r="C29" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,17 +1604,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['kapan']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['pan']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['pan']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19562</v>
+        <v>32299</v>
       </c>
       <c r="C30" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,15 +1645,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['rt', 'ingin', 'ke', 'london', 'tapi', 'bujet', 'rendah', 'tenang', 'banyaknya', 'pilihan', 'destinasi', 'wisata', 'gratis', 'di', 'london']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['london', 'bujet', 'rendah', 'tenang', 'banyaknya', 'pilihan', 'destinasi', 'wisata', 'gratis', 'london']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['london', 'bujet', 'rendah', 'tenang', 'banyak', 'pilih', 'destinasi', 'wisata', 'gratis', 'london']</t>
         </is>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19563</v>
+        <v>32300</v>
       </c>
       <c r="C31" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'sepatutnya', 'bangsa', 'kita', 'melakukan', 'protes', 'keras', 'atas', 'pernyataan', 'donald', 'trump', 'yang', 'mengakui', 'dan', 'menempatkan', 'yarussalem', 'sebagai']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['sepatutnya', 'bangsa', 'protes', 'keras', 'pernyataan', 'donald', 'trump', 'mengakui', 'menempatkan', 'yarussalem', 'sebaga']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['patut', 'bangsa', 'protes', 'keras', 'nyata', 'donald', 'trump', 'aku', 'tempat', 'yarussalem', 'sebaga']</t>
+          <t>['sepatutnya', 'bangsa', 'protes', 'keras', 'pernyataan', 'donald', 'trump', 'mengakui', 'menempatkan', 'yarussalem']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['patut', 'bangsa', 'protes', 'keras', 'nyata', 'donald', 'trump', 'aku', 'tempat', 'yarussalem']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19564</v>
+        <v>32301</v>
       </c>
       <c r="C32" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['rt', 'hatimu', 'tinggalkanku', 'langit', 'ke', 'ft', 'ini', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['hatimu', 'tinggalkanku', 'langit', 'ft', 'its', 'indo']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hati', 'tinggal', 'langit', 'ft', 'its', 'indo']</t>
+          <t>['hatimu', 'tinggalkanku', 'langit', 'ft', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['hati', 'tinggal', 'langit', 'ft', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19565</v>
+        <v>32302</v>
       </c>
       <c r="C33" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['rt', 'rubrik', 'informasi', 'amp', 'musik', 'kawal', 'host', 'amp', 'selasa', 'putar', 'ft']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['rubrik', 'informasi', 'musik', 'kawal', 'host', 'selasa', 'putar', 'ft']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['rubrik', 'informasi', 'musik', 'kawal', 'host', 'selasa', 'putar', 'ft']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19566</v>
+        <v>32303</v>
       </c>
       <c r="C34" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,15 +1809,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['rt', 'rubrik', 'informasi', 'amp', 'musik', 'senin', 'tersaji', 'cc', 'id']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['rubrik', 'informasi', 'musik', 'senin', 'tersaji', 'cc', 'id']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['rubrik', 'informasi', 'musik', 'senin', 'saji', 'cc', 'id']</t>
         </is>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19567</v>
+        <v>32304</v>
       </c>
       <c r="C35" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,15 +1850,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'langit', 'ke', 'kisah', 'cintanya', 'bersama', 'sonya', 'cc']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['id', 'langit', 'kisah', 'cintanya', 'sonya', 'cc']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['id', 'langit', 'kisah', 'cinta', 'sonya', 'cc']</t>
         </is>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19568</v>
+        <v>32305</v>
       </c>
       <c r="C36" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,15 +1891,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'amp', 'sonyafatmala', 'merilis', 'single', 'langit', 'ke', 'yang', 'diciptakan', 'oleh', 'hengky']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['sonyafatmala', 'merilis', 'single', 'langit', 'diciptakan', 'hengky']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['sonyafatmala', 'rilis', 'single', 'langit', 'cipta', 'hengky']</t>
         </is>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19569</v>
+        <v>32306</v>
       </c>
       <c r="C37" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,15 +1932,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'ingin', 'sang', 'anak', 'jadi', 'ustaz', 'cc', 'via']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['id', 'sang', 'anak', 'ustaz', 'cc', 'via']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['id', 'sang', 'anak', 'ustaz', 'cc', 'via']</t>
         </is>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19570</v>
+        <v>32307</v>
       </c>
       <c r="C38" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,15 +1973,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'popnesia', 'kompilasi', 'terbaru', 'pop', 'indonesia', 'cc']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['id', 'popnesia', 'kompilasi', 'terbaru', 'pop', 'indonesia', 'cc']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['id', 'popnesia', 'kompilasi', 'baru', 'pop', 'indonesia', 'cc']</t>
         </is>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19571</v>
+        <v>32308</v>
       </c>
       <c r="C39" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,15 +2014,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['rt', 'ft', 'sonya', 'fatmala', 'langit', 'ke', 'id']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['ft', 'sonya', 'fatmala', 'langit', 'id']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['ft', 'sonya', 'fatmala', 'langit', 'id']</t>
         </is>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19572</v>
+        <v>32309</v>
       </c>
       <c r="C40" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'langit', 'ke', 'ft', 'sonya']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['langit', 'ft', 'sonya']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['langit', 'ft', 'sonya']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19573</v>
+        <v>32310</v>
       </c>
       <c r="C41" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,15 +2096,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['rt', 'ayo', 'saksikan', 'serunya', 'popnesia', 'bersama', 'delon', 'hengky', 'kurniawan', 'dan', 'masih', 'banyak', 'lagi', 'hari', 'ini', 'kamis', 'november', 'puk']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['ayo', 'saksikan', 'serunya', 'popnesia', 'delon', 'hengky', 'kurniawan', 'kamis', 'november', 'puk']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['ayo', 'saksi', 'seru', 'popnesia', 'don', 'hengky', 'kurniawan', 'kamis', 'november', 'puk']</t>
         </is>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19574</v>
+        <v>32311</v>
       </c>
       <c r="C42" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,15 +2137,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['rt', 'bali', 'feat', 'sonya', 'fatmala', 'langit', 'ke', 'id']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['bali', 'feat', 'sonya', 'fatmala', 'langit', 'id']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['bal', 'feat', 'sonya', 'fatmala', 'langit', 'id']</t>
         </is>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19575</v>
+        <v>32312</v>
       </c>
       <c r="C43" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,15 +2178,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'sukses', 'buat', 'sonyafatmala', 'untuk', 'single', 'barunya', 'langitke', 'get', 'it', 'on', 'itunes', 'gaees']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['sukses', 'sonyafatmala', 'single', 'barunya', 'langitke', 'get', 'it', 'on', 'itunes', 'gaees']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['sukses', 'sonyafatmala', 'single', 'baru', 'langitke', 'get', 'it', 'on', 'itunes', 'gaees']</t>
         </is>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19576</v>
+        <v>32313</v>
       </c>
       <c r="C44" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,15 +2219,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['rt', 'release', 'rabu', 'amp', 'sonyafatmala']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>['release', 'rabu', 'sonyafatmala']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['release', 'rabu', 'sonyafatmala']</t>
         </is>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19577</v>
+        <v>32314</v>
       </c>
       <c r="C45" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,17 +2260,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'halo', 'id', 'merilis', 'single', 'baru', 'dari', 'feat', 'sonya', 'fatmala', 'langit', 'ke', 'll', 'cc']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['hallo', 'id', 'merilis', 'single', 'feat', 'sonya', 'fatmala', 'langit', 'll', 'cc']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['hallo', 'id', 'rilis', 'single', 'feat', 'sonya', 'fatmala', 'langit', 'll', 'cc']</t>
+          <t>['halo', 'id', 'merilis', 'single', 'feat', 'sonya', 'fatmala', 'langit', 'll', 'cc']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['halo', 'id', 'rilis', 'single', 'feat', 'sonya', 'fatmala', 'langit', 'll', 'cc']</t>
         </is>
       </c>
     </row>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19578</v>
+        <v>32315</v>
       </c>
       <c r="C46" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,15 +2301,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['rt', 'new', 'release', 'hengky', 'kurniawan', 'amp', 'sonya', 'fatmala', 'langit', 'ke', 'id', 'cc']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['new', 'release', 'hengky', 'kurniawan', 'sonya', 'fatmala', 'langit', 'id', 'cc']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['new', 'release', 'hengky', 'kurniawan', 'sonya', 'fatmala', 'langit', 'id', 'cc']</t>
         </is>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19579</v>
+        <v>32316</v>
       </c>
       <c r="C47" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'dan', 'sonya', 'fatmala', 'rilis', 'single', 'langit', 'ke', 'cc']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['id', 'sonya', 'fatmala', 'rilis', 'single', 'langit', 'cc']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['id', 'sonya', 'fatmala', 'rilis', 'single', 'langit', 'cc']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19580</v>
+        <v>32317</v>
       </c>
       <c r="C48" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'id']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['id']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['id']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19581</v>
+        <v>32318</v>
       </c>
       <c r="C49" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['rt', 'ft', 'sonya', 'fatmala', 'langit', 'ke', 'id']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['ft', 'sonya', 'fatmala', 'langit', 'id']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['ft', 'sonya', 'fatmala', 'langit', 'id']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19582</v>
+        <v>32319</v>
       </c>
       <c r="C50" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,15 +2465,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['rt', 'diprogram', 'pop', 'release', 'today', 'rabu']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['diprogram', 'pop', 'release', 'today', 'rabu']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['program', 'pop', 'release', 'today', 'rabu']</t>
         </is>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19583</v>
+        <v>32320</v>
       </c>
       <c r="C51" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,15 +2506,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'get', 'it', 'on', 'for', 'amp', 'sonya', 'fatmala', 'langit', 'ke', 'single', 'cc']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['id', 'get', 'it', 'on', 'for', 'sonya', 'fatmala', 'langit', 'single', 'cc']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['id', 'get', 'it', 'on', 'for', 'sonya', 'fatmala', 'langit', 'single', 'cc']</t>
         </is>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19584</v>
+        <v>32321</v>
       </c>
       <c r="C52" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,15 +2547,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'kebahagiaan', 'atas', 'lahirnya', 'putra', 'ke']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['id', 'kebahagiaan', 'lahirnya', 'putra']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['id', 'bahagia', 'lahir', 'putra']</t>
         </is>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19585</v>
+        <v>32322</v>
       </c>
       <c r="C53" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'mlg', 'jumat', 'mubarok', 'dukung', 'sucita', 'yuk', 'sambil', 'berdoa', 'semoga', 'menang', 'amin', 'ketik', 'adi', 'kirim', 'terima, kasih', 'sayang', 'cc']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['mlg', 'jumat', 'mubarok', 'dukung', 'sucita', 'yuk', 'berdoa', 'semoga', 'menang', 'amin', 'ketik', 'adi', 'kirim', 'mksh', 'say', 'cc']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['mlg', 'jumat', 'mubarok', 'dukung', 'sucita', 'yuk', 'doa', 'moga', 'menang', 'amin', 'ketik', 'adi', 'kirim', 'mksh', 'say', 'cc']</t>
+          <t>['mlg', 'jumat', 'mubarok', 'dukung', 'sucita', 'yuk', 'berdoa', 'semoga', 'menang', 'amin', 'ketik', 'adi', 'kirim', 'terima, kasih', 'sayang', 'cc']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['mlg', 'jumat', 'mubarok', 'dukung', 'sucita', 'yuk', 'doa', 'moga', 'menang', 'amin', 'ketik', 'adi', 'kirim', 'terima kasih', 'sayang', 'cc']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19586</v>
+        <v>32323</v>
       </c>
       <c r="C54" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,15 +2629,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['rt', 'sucita', 'mohon', 'doa', 'dan', 'dukungannya', 'ya', 'buat', 'ucie', 'amp', 'di', 'acara', 'anugerah', 'dangdut', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['sucita', 'mohon', 'doa', 'dukungannya', 'ucie', 'acara', 'anugerah', 'dangdut', 'indonesia']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['sucita', 'mohon', 'doa', 'dukung', 'ucie', 'acara', 'anugerah', 'dangdut', 'indonesia']</t>
         </is>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19587</v>
+        <v>32324</v>
       </c>
       <c r="C55" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,17 +2670,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'sucita', 'amp', 'regenerasi', 'kalau', 'bulan', 'bisa', 'berbicara', 'cc', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['id', 'sucita', 'regenerasi', 'ngomong', 'cc', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['id', 'sucita', 'regenerasi', 'ngomong', 'cc', 'indonesia']</t>
+          <t>['id', 'sucita', 'regenerasi', 'berbicara', 'cc', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['id', 'sucita', 'regenerasi', 'bicara', 'cc', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19588</v>
+        <v>32325</v>
       </c>
       <c r="C56" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,17 +2711,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['rt', 'artis', 'hengky', 'kurniawan', 'terinspirasi', 'body, mass, index', 'hong', 'kong', 'yang', 'duitnya', 'banyak', 'jadi', 'bikin', 'sinetron', 'deh', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['artis', 'hengky', 'kurniawan', 'terinspirasi', 'bmi', 'hong', 'kong', 'duitnya', 'sinetron', 'deh', 'https']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['artis', 'hengky', 'kurniawan', 'inspirasi', 'bmi', 'hong', 'kong', 'duit', 'sinetron', 'deh', 'https']</t>
+          <t>['artis', 'hengky', 'kurniawan', 'terinspirasi', 'body, mass, index', 'hong', 'kong', 'duitnya', 'sinetron', 'deh', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['artis', 'hengky', 'kurniawan', 'inspirasi', 'body mass index', 'hong', 'kong', 'duit', 'sinetron', 'deh', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19589</v>
+        <v>32326</v>
       </c>
       <c r="C57" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,17 +2752,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['rt', 'siantar', 'halo', 'beiibs', 'yuk', 'memilih', 'single', 'kalau', 'bulan', 'bisa', 'berbicara', 'dari', 'sucita', 'ft', 'di', 'adi']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['siantar', 'hallo', 'beiibs', 'yuk', 'vote', 'single', 'ngomong', 'sucita', 'ft', 'adi']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['siantar', 'hallo', 'beiibs', 'yuk', 'vote', 'single', 'ngomong', 'sucita', 'ft', 'adi']</t>
+          <t>['siantar', 'halo', 'beiibs', 'yuk', 'memilih', 'single', 'berbicara', 'sucita', 'ft', 'adi']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['siantar', 'halo', 'beiibs', 'yuk', 'pilih', 'single', 'bicara', 'sucita', 'ft', 'adi']</t>
         </is>
       </c>
     </row>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19590</v>
+        <v>32327</v>
       </c>
       <c r="C58" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rt', 'ketik', 'adi', 'spasi', 'kirim', 'ke', 'sucita', 'feat', 'kalau', 'bulan', 'bisa', 'berbicara']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['ketik', 'adi', 'spasi', 'kirim', 'sucita', 'feat', 'ngomong']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['ketik', 'adi', 'spasi', 'kirim', 'sucita', 'feat', 'ngomong']</t>
+          <t>['ketik', 'adi', 'spasi', 'kirim', 'sucita', 'feat', 'berbicara']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['ketik', 'adi', 'spasi', 'kirim', 'sucita', 'feat', 'bicara']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19591</v>
+        <v>32328</v>
       </c>
       <c r="C59" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,17 +2834,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'mde', 'sakti', 'mulai', 'jahat', 'ke', 'cinta', 'nih', 'guys', 'bagaimana', 'kelanjutannya', 'yuk', 'langsung', 'menonton', 'lagi', 'episode', 'di', 'di', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['mde', 'sakti', 'jahat', 'cinta', 'guys', 'gimana', 'kelanjutannya', 'yuk', 'langsung', 'nonton', 'episode', 'http']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['mde', 'sakti', 'jahat', 'cinta', 'guys', 'gimana', 'lanjut', 'yuk', 'langsung', 'nonton', 'episode', 'http']</t>
+          <t>['mde', 'sakti', 'jahat', 'cinta', 'guys', 'kelanjutannya', 'yuk', 'langsung', 'menonton', 'episode', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['mde', 'sakti', 'jahat', 'cinta', 'guys', 'lanjut', 'yuk', 'langsung', 'tonton', 'episode', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19592</v>
+        <v>32329</v>
       </c>
       <c r="C60" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,15 +2875,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19593</v>
+        <v>32330</v>
       </c>
       <c r="C61" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,17 +2916,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'mde', 'jangan', 'bawa, perasaan', 'ya', 'guys', 'lihat', 'adegan', 'pernikahan', 'sakti', 'amp', 'cinta', 'ini', 'tonton', 'lagi', 'sinetrans', 'episode', 'di', 'youtu']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['mde', 'baper', 'guys', 'lihat', 'adegan', 'pernikahan', 'sakti', 'cinta', 'tonton', 'sinetrans', 'eps', 'youtu']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['mde', 'baper', 'guys', 'lihat', 'adegan', 'nikah', 'sakti', 'cinta', 'tonton', 'trans', 'eps', 'youtu']</t>
+          <t>['mde', 'bawa, perasaan', 'guys', 'lihat', 'adegan', 'pernikahan', 'sakti', 'cinta', 'tonton', 'sinetrans', 'episode', 'youtu']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['mde', 'bawa asa', 'guys', 'lihat', 'adegan', 'nikah', 'sakti', 'cinta', 'tonton', 'trans', 'episode', 'youtu']</t>
         </is>
       </c>
     </row>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19594</v>
+        <v>32331</v>
       </c>
       <c r="C62" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,17 +2957,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['happy', 'akhir, pekan', 'teman', 'jangan', 'lupa', 'mampir', 'ke', 'bananafosterlampung', 'bangiiiik', 'temoon']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['happy', 'weekend', 'teman', 'lupa', 'mampir', 'bananafosterlampung', 'bangiiiik', 'temoon']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['happy', 'weekend', 'teman', 'lupa', 'mampir', 'bananafosterlampung', 'bangiiiik', 'temoon']</t>
+          <t>['happy', 'akhir, pekan', 'teman', 'lupa', 'mampir', 'bananafosterlampung', 'bangiiiik', 'temoon']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['happy', 'akhir pekan', 'teman', 'lupa', 'mampir', 'bananafosterlampung', 'bangiiiik', 'temoon']</t>
         </is>
       </c>
     </row>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19595</v>
+        <v>32332</v>
       </c>
       <c r="C63" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,17 +2998,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['rt', 'mulai', 'oktober', 'pelanggan', 'kartu', 'telepon', 'prabayar', 'wajib', 'registrasi', 'kalau', 'tidak', 'nanti', 'diblokir', 'lo', 'bagaimana', 'cara', 'registrasinya']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['oktober', 'pelanggan', 'kartu', 'telepon', 'prabayar', 'wajib', 'registrasi', 'diblokir', 'lho', 'gimana', 'registrasinya']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['oktober', 'langgan', 'kartu', 'telepon', 'prabayar', 'wajib', 'registrasi', 'blokir', 'lho', 'gimana', 'registrasi']</t>
+          <t>['oktober', 'pelanggan', 'kartu', 'telepon', 'prabayar', 'wajib', 'registrasi', 'diblokir', 'lo', 'registrasinya']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['oktober', 'langgan', 'kartu', 'telepon', 'prabayar', 'wajib', 'registrasi', 'blokir', 'lo', 'registrasi']</t>
         </is>
       </c>
     </row>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19596</v>
+        <v>32333</v>
       </c>
       <c r="C64" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,15 +3039,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'membuat', 'keadaan', 'seolah', 'dalam', 'kegentingan', 'memaksa', 'dengan', 'tujuan', 'memukul', 'lawanlawan', 'politik', 'adalah', 'cara', 'memalukan', 'dalam', 'politi']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['kegentingan', 'memaksa', 'tujuan', 'memukul', 'lawanlawan', 'politik', 'memalukan', 'politi']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['genting', 'paksa', 'tuju', 'pukul', 'lawanlawan', 'politik', 'malu', 'politi']</t>
         </is>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19597</v>
+        <v>32334</v>
       </c>
       <c r="C65" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,17 +3080,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['rt', 'menteri, perdagangan', 'retribusi', 'pasar', 'bukan', 'sumber', 'pad']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['mendag', 'retribusi', 'pasar', 'sumber', 'pad']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['mendag', 'retribusi', 'pasar', 'sumber', 'pad']</t>
+          <t>['menteri, perdagangan', 'retribusi', 'pasar', 'sumber', 'pad']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['menteri dagang', 'retribusi', 'pasar', 'sumber', 'pad']</t>
         </is>
       </c>
     </row>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19598</v>
+        <v>32335</v>
       </c>
       <c r="C66" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,15 +3121,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['rt', 'banyak', 'jalan', 'rusak', 'wali', 'kota', 'medan', 'meminta', 'maaf']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['jalan', 'rusak', 'wali', 'kota', 'medan', 'maaf']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['jalan', 'rusak', 'wali', 'kota', 'medan', 'maaf']</t>
         </is>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19599</v>
+        <v>32336</v>
       </c>
       <c r="C67" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,15 +3162,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['negeri', 'ini', 'butuh', 'banyak', 'pemuda', 'yang', 'bisa', 'memberikan', 'solusi', 'bukan', 'pemaki', 'manfaatkan', 'hidup', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['negeri', 'butuh', 'pemuda', 'solusi', 'pemaki', 'manfaatkan', 'hidup']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['negeri', 'butuh', 'pemuda', 'solusi', 'maki', 'manfaat', 'hidup']</t>
         </is>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19600</v>
+        <v>32337</v>
       </c>
       <c r="C68" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,15 +3203,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['meski', 'dekat', 'dengan', 'kantor', 'pemerintah', 'bandung', 'barat', 'namun', 'selama', 'puluhan', 'tahun', 'satu', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['kantor', 'pemerintah', 'bandung', 'barat', 'puluhan', 'keluarga']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['kantor', 'perintah', 'bandung', 'barat', 'puluh', 'keluarga']</t>
         </is>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19601</v>
+        <v>32338</v>
       </c>
       <c r="C69" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,17 +3244,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['wah', 'bikin', 'kartu, tanda, penduduk', 'di', 'kabupaten', 'bandung', 'barat', 'ribu', 'salah', 'satu', 'warga']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['wow', 'ktp', 'kabupaten', 'bandung', 'barat', 'ribu', 'salah', 'warga']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['wow', 'ktp', 'kabupaten', 'bandung', 'barat', 'ribu', 'salah', 'warga']</t>
+          <t>['kartu, tanda, penduduk', 'kabupaten', 'bandung', 'barat', 'ribu', 'salah', 'warga']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kartu tanda duduk', 'kabupaten', 'bandung', 'barat', 'ribu', 'salah', 'warga']</t>
         </is>
       </c>
     </row>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19602</v>
+        <v>32339</v>
       </c>
       <c r="C70" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,17 +3285,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'fosterlovers', 'bananafosterlampung']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'fosterlovers', 'bananafosterlampung']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['terimakasih', 'fosterlovers', 'bananafosterlampung']</t>
+          <t>['terima, kasih', 'fosterlovers', 'bananafosterlampung']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'fosterlovers', 'bananafosterlampung']</t>
         </is>
       </c>
     </row>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19603</v>
+        <v>32340</v>
       </c>
       <c r="C71" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,15 +3326,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['melihat', 'langsung', 'kondisi', 'salah', 'satu', 'sekolah', 'di', 'kbb', 'support', 'dan', 'perhatian', 'dari', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['langsung', 'kondisi', 'salah', 'sekolah', 'kbb', 'support', 'perhatian', 'pemerintah']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['langsung', 'kondisi', 'salah', 'sekolah', 'kbb', 'support', 'perhati', 'perintah']</t>
         </is>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19604</v>
+        <v>32341</v>
       </c>
       <c r="C72" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,15 +3367,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['pemberian', 'beasiswa', 'untuk', 'siswa', 'siswi', 'berprestasi', 'dari', 'bananafosterlampung', 'inshaaallah', 'akan']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['pemberian', 'beasiswa', 'siswa', 'siswi', 'berprestasi', 'bananafosterlampung', 'inshaaallah']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['beri', 'beasiswa', 'siswa', 'siswi', 'prestasi', 'bananafosterlampung', 'inshaaallah']</t>
         </is>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19605</v>
+        <v>32342</v>
       </c>
       <c r="C73" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,17 +3408,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['masalah', 'membuat', 'kita', 'semakin', 'dewasa', 'jadi', 'kalau', 'mau', 'dewasa', 'seringlah', 'bermasalah', 'alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['dewasa', 'dewasa', 'seringlah', 'bermasalah', 'alhamdulilah']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['dewasa', 'dewasa', 'sering', 'masalah', 'alhamdulilah']</t>
+          <t>['dewasa', 'dewasa', 'seringlah', 'bermasalah', 'alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['dewasa', 'dewasa', 'sering', 'masalah', 'alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19606</v>
+        <v>32343</v>
       </c>
       <c r="C74" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,15 +3449,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['ikhtiar', 'politik', 'ini', 'untuk', 'kbb', 'yang', 'bahagia', 'salam', 'perubahan']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['ikhtiar', 'politik', 'kbb', 'bahagia', 'salam', 'perubahan']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['ikhtiar', 'politik', 'kbb', 'bahagia', 'salam', 'ubah']</t>
         </is>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19607</v>
+        <v>32344</v>
       </c>
       <c r="C75" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,15 +3490,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'bisa', 'bertemu', 'dan', 'menyapa', 'warga', 'bandung', 'barat', 'kecamatan', 'gunung', 'halu', 'semoga']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'bertemu', 'menyapa', 'warga', 'bandung', 'barat', 'kecamatan', 'gunung', 'halu', 'semoga']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'temu', 'sapa', 'warga', 'bandung', 'barat', 'camat', 'gunung', 'halu', 'moga']</t>
         </is>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19608</v>
+        <v>32345</v>
       </c>
       <c r="C76" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,15 +3531,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['ada', 'banyak', 'pilihan', 'untuk', 'berjualan', 'online', 'di', 'era', 'modern', 'seperti', 'sekarang', 'ini', 'anak', 'muda', 'harus']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['pilihan', 'berjualan', 'online', 'era', 'modern', 'anak', 'muda']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['pilih', 'jual', 'online', 'era', 'modern', 'anak', 'muda']</t>
         </is>
@@ -3175,10 +3555,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19609</v>
+        <v>32346</v>
       </c>
       <c r="C77" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3192,15 +3572,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['bertemu', 'dengan', 'calon', 'pemimpin', 'masa', 'depan', 'dari', 'kabubaten', 'bandung', 'barat', 'bahagia', 'bila', 'saya', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['bertemu', 'calon', 'pemimpin', 'kabubaten', 'bandung', 'barat', 'bahagia']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>['temu', 'calon', 'pimpin', 'kabubaten', 'bandung', 'barat', 'bahagia']</t>
         </is>
@@ -3211,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19610</v>
+        <v>32347</v>
       </c>
       <c r="C78" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3228,17 +3613,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['menunggu', 'angkutan, kota', 'dari', 'tadi', 'enggak', 'ada', 'yang', 'lewat', 'apalagi', 'ojek', 'teman', 'ada', 'yang', 'bisa', 'bantu', 'oh']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['nungguin', 'angkot', 'nggak', 'ojek', 'temen', 'bantu', 'oh']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['nungguin', 'angkot', 'nggak', 'ojek', 'temen', 'bantu', 'oh']</t>
+          <t>['menunggu', 'angkutan, kota', 'ojek', 'teman', 'bantu', 'oh']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['tunggu', 'angkut kota', 'ojek', 'teman', 'bantu', 'oh']</t>
         </is>
       </c>
     </row>
@@ -3247,10 +3637,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19611</v>
+        <v>32348</v>
       </c>
       <c r="C79" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3264,15 +3654,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['merah', 'putih', 'memanggil', 'bintan', 'island']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['merah', 'putih', 'memanggil', 'bintan', 'island']</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>['merah', 'putih', 'panggil', 'bintan', 'island']</t>
         </is>
@@ -3283,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19612</v>
+        <v>32349</v>
       </c>
       <c r="C80" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3300,15 +3695,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['rt', 'hasan', 'adalah', 'hak', 'konstitusional', 'warga', 'negara', 'sampaikan', 'aspirasi', 'dengan', 'tertib', 'aman', 'amp', 'damai', 'ya']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['hasan', 'hak', 'konstitusional', 'warga', 'negara', 'aspirasi', 'tertib', 'aman', 'damai']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['hasan', 'hak', 'konstitusional', 'warga', 'negara', 'aspirasi', 'tertib', 'aman', 'damai']</t>
         </is>
@@ -3319,10 +3719,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19613</v>
+        <v>32350</v>
       </c>
       <c r="C81" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3336,17 +3736,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['rt', 'bohongi', 'rakyat', 'partai, komunis, indonesia', 'itu', 'partai', 'kiai', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['bohongi', 'rakyat', 'pki', 'partai', 'kiai', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['bohong', 'rakyat', 'pki', 'partai', 'kiai', 'indonesia']</t>
+          <t>['bohongi', 'rakyat', 'partai, komunis, indonesia', 'partai', 'kiai', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['bohong', 'rakyat', 'partai komunis indonesia', 'partai', 'kiai', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3355,10 +3760,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19614</v>
+        <v>32351</v>
       </c>
       <c r="C82" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3372,15 +3777,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['rt', 'mde', 'episode', 'harapan', 'cinta', 'sudah', 'bisa', 'kamu', 'saksikan', 'di', 'md', 'entertainment', 'lah', 'melodimelodi', 'cinta']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['mde', 'episode', 'harapan', 'cinta', 'saksikan', 'md', 'entertainment', 'melodimelodi', 'cinta']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['mde', 'episode', 'harap', 'cinta', 'saksi', 'md', 'entertainment', 'melodimelodi', 'cinta']</t>
         </is>
@@ -3391,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19615</v>
+        <v>32352</v>
       </c>
       <c r="C83" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3408,15 +3818,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['tabikpuuun', 'metro', 'amp', 'pingsewu', 'kita', 'jumpa', 'tanggal', 'september', 'ya', 'di', 'chandra', 'pringsewu']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['tabikpuuun', 'metro', 'pingsewu', 'jumpa', 'tanggal', 'september', 'chandra', 'pringsewu']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['tabikpuuun', 'metro', 'pingsewu', 'jumpa', 'tanggal', 'september', 'chandra', 'pringsewu']</t>
         </is>
@@ -3427,10 +3842,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19616</v>
+        <v>32353</v>
       </c>
       <c r="C84" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3444,17 +3859,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'teman', 'di', 'batam', 'ketemuan', 'yuk', 'sama', 'aku', 'di', 'boxcafe', 'hari', 'minggu', 'tanggal']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'temen', 'batam', 'ketemuan', 'yuk', 'boxcafe', 'minggu', 'tanggal']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'temen', 'batam', 'ketemu', 'yuk', 'boxcafe', 'minggu', 'tanggal']</t>
+          <t>['assalamualaikum', 'teman', 'batam', 'ketemuan', 'yuk', 'boxcafe', 'minggu', 'tanggal']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'teman', 'batam', 'ketemu', 'yuk', 'boxcafe', 'minggu', 'tanggal']</t>
         </is>
       </c>
     </row>
@@ -3463,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19617</v>
+        <v>32354</v>
       </c>
       <c r="C85" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3480,17 +3900,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['senang', 'bisa', 'berbagi', 'kebahagiaan', 'dan', 'tertawa', 'bersama', 'adik', 'pendidikan, anak, usia, dini', 'di', 'parongpong', 'kabupaten', 'bandung']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['senang', 'berbagi', 'kebahagiaan', 'tertawa', 'adek', 'paud', 'parongpong', 'kabupaten', 'bandung']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['senang', 'bagi', 'bahagia', 'tertawa', 'adek', 'paud', 'parongpong', 'kabupaten', 'bandung']</t>
+          <t>['senang', 'berbagi', 'kebahagiaan', 'tertawa', 'adik', 'pendidikan, anak, usia, dini', 'parongpong', 'kabupaten', 'bandung']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['senang', 'bagi', 'bahagia', 'tertawa', 'adik', 'didik anak usia dini', 'parongpong', 'kabupaten', 'bandung']</t>
         </is>
       </c>
     </row>
@@ -3499,10 +3924,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19618</v>
+        <v>32355</v>
       </c>
       <c r="C86" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3516,17 +3941,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['rt', 'bahagia', 'itu', 'sederhana', 'bisa', 'swafoto', 'bareng', 'mas', 'gibran', 'musalnya']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['bahagia', 'sederhana', 'selfie', 'bareng', 'mas', 'gibran', 'musalnya']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['bahagia', 'sederhana', 'selfie', 'bareng', 'mas', 'gibran', 'musalnya']</t>
+          <t>['bahagia', 'sederhana', 'swafoto', 'bareng', 'mas', 'gibran', 'musalnya']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['bahagia', 'sederhana', 'swafoto', 'bareng', 'mas', 'gibran', 'musalnya']</t>
         </is>
       </c>
     </row>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19619</v>
+        <v>32356</v>
       </c>
       <c r="C87" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3552,15 +3982,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['jaga', 'cintanya', 'dengan', 'banana', 'yess', 'bananafosterlampung', 'selalu', 'ada', 'diantara', 'kita', 'teman']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['jaga', 'cintanya', 'banana', 'yess', 'bananafosterlampung', 'teman']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['jaga', 'cinta', 'banana', 'yess', 'bananafosterlampung', 'teman']</t>
         </is>
@@ -3571,10 +4006,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19620</v>
+        <v>32357</v>
       </c>
       <c r="C88" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3588,15 +4023,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['sukses', 'lagunya', 'enak', 'banget', 'wan', 'chai', 'district']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['sukses', 'lagunya', 'enak', 'banget', 'wan', 'chai', 'district']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['sukses', 'lagu', 'enak', 'banget', 'wan', 'chai', 'district']</t>
         </is>
@@ -3607,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19621</v>
+        <v>32358</v>
       </c>
       <c r="C89" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3624,17 +4064,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'aiqiclothing', 'tshirt', 'nya', 'keren', 'banget', 'hong', 'kong']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['thanks', 'aiqiclothing', 'tshirt', 'keren', 'banget', 'hong', 'kong']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['thanks', 'aiqiclothing', 'tshirt', 'keren', 'banget', 'hong', 'kong']</t>
+          <t>['terima, kasih', 'aiqiclothing', 'tshirt', 'keren', 'banget', 'hong', 'kong']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'aiqiclothing', 'tshirt', 'keren', 'banget', 'hong', 'kong']</t>
         </is>
       </c>
     </row>
@@ -3643,10 +4088,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19622</v>
+        <v>32359</v>
       </c>
       <c r="C90" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3660,15 +4105,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['senang', 'dan', 'bangga', 'hari', 'ini', 'bisa', 'menghibur', 'sahabat', 'di', 'hongkong', 'dan', 'pahlawan', 'devisa', 'tidak', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['senang', 'bangga', 'menghibur', 'sahabat', 'hongkong', 'pahlawan', 'devisa']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['senang', 'bangga', 'hibur', 'sahabat', 'hongkong', 'pahlawan', 'devisa']</t>
         </is>
@@ -3679,10 +4129,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19623</v>
+        <v>32360</v>
       </c>
       <c r="C91" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3696,17 +4146,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'all', 'tim', 'hong', 'kong', 'convention', 'and', 'exhibition', 'centre']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'all', 'team', 'hong', 'kong', 'convention', 'and', 'exhibition', 'centre']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['terimakasih', 'all', 'team', 'hong', 'kong', 'convention', 'and', 'exhibition', 'centre']</t>
+          <t>['terima, kasih', 'all', 'tim', 'hong', 'kong', 'convention', 'and', 'exhibition', 'centre']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'all', 'tim', 'hong', 'kong', 'convention', 'and', 'exhibition', 'centre']</t>
         </is>
       </c>
     </row>
@@ -3715,10 +4170,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19624</v>
+        <v>32361</v>
       </c>
       <c r="C92" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3732,17 +4187,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'sahabat', 'di', 'hongkong', 'sukses', 'buat', 'semuanya', 'dan', 'selalu', 'bahagia', 'hong', 'kong']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'sahabat', 'hongkong', 'sukses', 'bahagia', 'hong', 'kong']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['terimakasih', 'sahabat', 'hongkong', 'sukses', 'bahagia', 'hong', 'kong']</t>
+          <t>['terima, kasih', 'sahabat', 'hongkong', 'sukses', 'bahagia', 'hong', 'kong']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'sahabat', 'hongkong', 'sukses', 'bahagia', 'hong', 'kong']</t>
         </is>
       </c>
     </row>
@@ -3751,10 +4211,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19625</v>
+        <v>32362</v>
       </c>
       <c r="C93" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3768,15 +4228,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['persiapan', 'sebelum', 'konser', 'sucita', 'bismillah', 'semoga', 'lancar', 'hong', 'kong']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['persiapan', 'konser', 'sucita', 'bismillah', 'semoga', 'lancar', 'hong', 'kong']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['siap', 'konser', 'sucita', 'bismillah', 'moga', 'lancar', 'hong', 'kong']</t>
         </is>
@@ -3787,10 +4252,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19626</v>
+        <v>32363</v>
       </c>
       <c r="C94" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3804,17 +4269,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'buat', 'sahabat', 'di', 'hongkong', 'yang', 'sudah', 'setia', 'dan', 'tulus', 'menemani', 'saya', 'kemana', 'selama', 'di']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'sahabat', 'hongkong', 'setia', 'tulus', 'menemani', 'kemana']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['terimakasih', 'sahabat', 'hongkong', 'setia', 'tulus', 'tani', 'mana']</t>
+          <t>['terima, kasih', 'sahabat', 'hongkong', 'setia', 'tulus', 'menemani', 'kemana']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'sahabat', 'hongkong', 'setia', 'tulus', 'tani', 'mana']</t>
         </is>
       </c>
     </row>
@@ -3823,10 +4293,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19627</v>
+        <v>32364</v>
       </c>
       <c r="C95" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3840,17 +4310,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['hari', 'ini', 'saya', 'berkesempatan', 'menghibur', 'teman', 'di', 'hongkong', 'semoga', 'bisa', 'memberikan', 'kebahagiaan']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['berkesempatan', 'menghibur', 'temen', 'hongkong', 'semoga', 'kebahagiaan']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['sempat', 'hibur', 'temen', 'hongkong', 'moga', 'bahagia']</t>
+          <t>['berkesempatan', 'menghibur', 'teman', 'hongkong', 'semoga', 'kebahagiaan']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['sempat', 'hibur', 'teman', 'hongkong', 'moga', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -3859,10 +4334,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19628</v>
+        <v>32365</v>
       </c>
       <c r="C96" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3876,15 +4351,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['comming', 'soon', 'langit', 'ke', 'sonyafatmala', 'hong', 'kong']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['comming', 'soon', 'langit', 'sonyafatmala', 'hong', 'kong']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['comming', 'soon', 'langit', 'sonyafatmala', 'hong', 'kong']</t>
         </is>
@@ -3895,10 +4375,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19629</v>
+        <v>32366</v>
       </c>
       <c r="C97" t="n">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3912,17 +4392,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['jangan', 'lupa', 'mampir', 'ya', 'teman', 'ditunggu', 'kedatanganya', 'di', 'bananafosterlampung']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['lupa', 'mampir', 'temen', 'ditunggu', 'kedatanganya', 'bananafosterlampung']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['lupa', 'mampir', 'temen', 'tunggu', 'kedatanganya', 'bananafosterlampung']</t>
+          <t>['lupa', 'mampir', 'teman', 'ditunggu', 'kedatanganya', 'bananafosterlampung']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['lupa', 'mampir', 'teman', 'tunggu', 'kedatanganya', 'bananafosterlampung']</t>
         </is>
       </c>
     </row>
